--- a/Incubyte assignment.xlsx
+++ b/Incubyte assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD3CAC71-3CE3-4FDA-81F9-867DE206B5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78034DF3-2DAB-4273-A1BE-BC184442AE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59182AFD-10F1-41A2-877E-E40BB2E40DB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -183,6 +183,42 @@
   </si>
   <si>
     <t xml:space="preserve">    And enters an invalid recipient email "test@com"</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify attachment functionality in an email</t>
+  </si>
+  <si>
+    <t>Compose an email and attach a file</t>
+  </si>
+  <si>
+    <t>Email should be sent successfully with the attachment</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify maximum attachment size limit</t>
+  </si>
+  <si>
+    <t>Attach a file larger than 25MB</t>
+  </si>
+  <si>
+    <t>Gmail should show an error</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify if a user can discard an email draft</t>
+  </si>
+  <si>
+    <t>Compose an email and click on "Discard"</t>
+  </si>
+  <si>
+    <t>Email should be removed from drafts</t>
   </si>
 </sst>
 </file>
@@ -569,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F9B62A-A409-4702-B8FA-39483E136A25}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -703,158 +739,209 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
